--- a/data_processing/2024/OES/data/PA_probe_surface_mean.xlsx
+++ b/data_processing/2024/OES/data/PA_probe_surface_mean.xlsx
@@ -491,16 +491,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.403748708499762</v>
+        <v>4.361394793546599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4833972140443962</v>
+        <v>1.09253457522419</v>
       </c>
       <c r="E2" t="n">
-        <v>5.999627711547616e+16</v>
+        <v>9.877688133290568e+16</v>
       </c>
       <c r="F2" t="n">
-        <v>1.201170149040555e+16</v>
+        <v>2.470914775241709e+16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -523,16 +523,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.848307006253151</v>
+        <v>5.039290050337152</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5743189788520312</v>
+        <v>1.260826391314274</v>
       </c>
       <c r="E3" t="n">
-        <v>8.420261255071029e+16</v>
+        <v>1.308969945300671e+17</v>
       </c>
       <c r="F3" t="n">
-        <v>1.68835160645286e+16</v>
+        <v>3.275135501208983e+16</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -555,16 +555,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.789995763027302</v>
+        <v>3.691897856866112</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5611990363322152</v>
+        <v>0.9240265530660627</v>
       </c>
       <c r="E4" t="n">
-        <v>1.040142176796496e+17</v>
+        <v>1.218232124721642e+17</v>
       </c>
       <c r="F4" t="n">
-        <v>2.08335500874573e+16</v>
+        <v>3.0480794633897e+16</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.107148326857404</v>
+        <v>3.610309442535375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6275781225500782</v>
+        <v>0.9056825326410755</v>
       </c>
       <c r="E5" t="n">
-        <v>9.543845263700946e+16</v>
+        <v>1.216609307726158e+17</v>
       </c>
       <c r="F5" t="n">
-        <v>1.913924595124444e+16</v>
+        <v>3.044573215573664e+16</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.790883487462303</v>
+        <v>3.638097961612667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5608319688626991</v>
+        <v>0.9109086308339427</v>
       </c>
       <c r="E6" t="n">
-        <v>8.520534225267904e+16</v>
+        <v>1.110978915166916e+17</v>
       </c>
       <c r="F6" t="n">
-        <v>1.706169403552784e+16</v>
+        <v>2.779027402683754e+16</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -651,16 +651,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.936297505951001</v>
+        <v>3.54279831562</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3898058741261627</v>
+        <v>0.8874777958504525</v>
       </c>
       <c r="E7" t="n">
-        <v>6.946423916575229e+16</v>
+        <v>1.151777507030199e+17</v>
       </c>
       <c r="F7" t="n">
-        <v>1.392001477230545e+16</v>
+        <v>2.881273105251808e+16</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -683,16 +683,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.576155009165421</v>
+        <v>3.544400227777787</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3201765313244207</v>
+        <v>0.8881004129896903</v>
       </c>
       <c r="E8" t="n">
-        <v>6.441857018928492e+16</v>
+        <v>1.065322958439832e+17</v>
       </c>
       <c r="F8" t="n">
-        <v>1.29400989630456e+16</v>
+        <v>2.665132858056664e+16</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -715,16 +715,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.102292649610959</v>
+        <v>8.391290069320064</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8210185406249835</v>
+        <v>2.104109650244256</v>
       </c>
       <c r="E9" t="n">
-        <v>1.836936367170225e+17</v>
+        <v>3.019374562965039e+17</v>
       </c>
       <c r="F9" t="n">
-        <v>3.674381242405442e+16</v>
+        <v>7.554910410329381e+16</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.944445797934962</v>
+        <v>4.04920290019022</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7925946367825299</v>
+        <v>1.013851286733662</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0864808944597e+17</v>
+        <v>2.138060523525394e+17</v>
       </c>
       <c r="F10" t="n">
-        <v>4.180044337596741e+16</v>
+        <v>5.347819935901777e+16</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -779,16 +779,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.022336862131302</v>
+        <v>3.454915472214377</v>
       </c>
       <c r="D11" t="n">
-        <v>0.806690466564324</v>
+        <v>0.8658151249347141</v>
       </c>
       <c r="E11" t="n">
-        <v>1.986659876809003e+17</v>
+        <v>1.64994755844454e+17</v>
       </c>
       <c r="F11" t="n">
-        <v>3.975379997023738e+16</v>
+        <v>4.127782153055521e+16</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -811,16 +811,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.583152583094531</v>
+        <v>4.056942798198314</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5424023218576869</v>
+        <v>1.016057334582307</v>
       </c>
       <c r="E12" t="n">
-        <v>1.241087544166223e+17</v>
+        <v>1.51209679385205e+17</v>
       </c>
       <c r="F12" t="n">
-        <v>2.506407761846393e+16</v>
+        <v>3.782520319811699e+16</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -843,16 +843,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.217654423479492</v>
+        <v>4.006002725079959</v>
       </c>
       <c r="D13" t="n">
-        <v>0.452205772421462</v>
+        <v>1.003306998823682</v>
       </c>
       <c r="E13" t="n">
-        <v>1.053638094546553e+17</v>
+        <v>1.363112248830603e+17</v>
       </c>
       <c r="F13" t="n">
-        <v>2.115336489871305e+16</v>
+        <v>3.410526755878514e+16</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -875,16 +875,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.467101141133724</v>
+        <v>3.049278413319214</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4964587741127389</v>
+        <v>0.7642422615657571</v>
       </c>
       <c r="E14" t="n">
-        <v>9.44844443473828e+16</v>
+        <v>1.251985391992125e+17</v>
       </c>
       <c r="F14" t="n">
-        <v>1.892515791927135e+16</v>
+        <v>3.13220666850291e+16</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -907,16 +907,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.511976830782737</v>
+        <v>3.811010722097104</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5085554658536561</v>
+        <v>0.9543437983516945</v>
       </c>
       <c r="E15" t="n">
-        <v>8.217570352299294e+16</v>
+        <v>1.177997763535396e+17</v>
       </c>
       <c r="F15" t="n">
-        <v>1.647711515956807e+16</v>
+        <v>2.946991401003576e+16</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -939,16 +939,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.923050245819518</v>
+        <v>5.36623109200628</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7937714290101582</v>
+        <v>1.342835124942446</v>
       </c>
       <c r="E16" t="n">
-        <v>1.218570817275283e+17</v>
+        <v>1.848643637239083e+17</v>
       </c>
       <c r="F16" t="n">
-        <v>2.443998826754144e+16</v>
+        <v>4.623639763626351e+16</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -971,16 +971,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5.522189745573692</v>
+        <v>5.778274222379072</v>
       </c>
       <c r="D17" t="n">
-        <v>1.106015274400683</v>
+        <v>1.446681109092076</v>
       </c>
       <c r="E17" t="n">
-        <v>1.207358269709813e+17</v>
+        <v>1.510964528855958e+17</v>
       </c>
       <c r="F17" t="n">
-        <v>2.417153991076548e+16</v>
+        <v>3.779403397271411e+16</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1003,16 +1003,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.664751710673452</v>
+        <v>3.59219592704062</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5359675246113343</v>
+        <v>0.8996587131989525</v>
       </c>
       <c r="E18" t="n">
-        <v>8.392473611180302e+16</v>
+        <v>1.069138255463654e+17</v>
       </c>
       <c r="F18" t="n">
-        <v>1.681204680449549e+16</v>
+        <v>2.674865684078031e+16</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1035,16 +1035,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.173090952880748</v>
+        <v>4.671869280971825</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6357421997320386</v>
+        <v>1.17107895160339</v>
       </c>
       <c r="E19" t="n">
-        <v>1.006224072323776e+17</v>
+        <v>1.240942402942917e+17</v>
       </c>
       <c r="F19" t="n">
-        <v>2.01314237514756e+16</v>
+        <v>3.10498264583134e+16</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1067,16 +1067,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.61333717384047</v>
+        <v>4.738493481487231</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7238732277093894</v>
+        <v>1.187416218547412</v>
       </c>
       <c r="E20" t="n">
-        <v>1.114743218925623e+17</v>
+        <v>1.333856282202489e+17</v>
       </c>
       <c r="F20" t="n">
-        <v>2.230199369928628e+16</v>
+        <v>3.336878666887663e+16</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1099,16 +1099,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.354375471119727</v>
+        <v>5.687038036641375</v>
       </c>
       <c r="D21" t="n">
-        <v>1.072405946858665</v>
+        <v>1.423508403254873</v>
       </c>
       <c r="E21" t="n">
-        <v>1.364173882668254e+17</v>
+        <v>1.405499401867894e+17</v>
       </c>
       <c r="F21" t="n">
-        <v>2.729164287770436e+16</v>
+        <v>3.515219484952589e+16</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1131,16 +1131,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>10.32348131545863</v>
+        <v>11.51024020553251</v>
       </c>
       <c r="D22" t="n">
-        <v>2.581316141550347</v>
+        <v>2.880351747003507</v>
       </c>
       <c r="E22" t="n">
-        <v>1.662354896732739e+17</v>
+        <v>4.065408933448099e+17</v>
       </c>
       <c r="F22" t="n">
-        <v>4.157087382172652e+16</v>
+        <v>1.016733650339113e+17</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1163,16 +1163,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.356883490532514</v>
+        <v>10.4785722809563</v>
       </c>
       <c r="D23" t="n">
-        <v>2.340313273004669</v>
+        <v>2.622340463383344</v>
       </c>
       <c r="E23" t="n">
-        <v>1.91364000644478e+17</v>
+        <v>4.386028398262497e+17</v>
       </c>
       <c r="F23" t="n">
-        <v>4.791552015876008e+16</v>
+        <v>1.09687335687244e+17</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1195,16 +1195,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5.760942325463321</v>
+        <v>9.494393618729761</v>
       </c>
       <c r="D24" t="n">
-        <v>1.441145412102783</v>
+        <v>2.37807711203944</v>
       </c>
       <c r="E24" t="n">
-        <v>1.360734593648011e+17</v>
+        <v>3.476765900925386e+17</v>
       </c>
       <c r="F24" t="n">
-        <v>3.402473524442209e+16</v>
+        <v>8.696322900968456e+16</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5.593225054885717</v>
+        <v>6.908814045279024</v>
       </c>
       <c r="D25" t="n">
-        <v>1.400660925198325</v>
+        <v>1.730593251819461</v>
       </c>
       <c r="E25" t="n">
-        <v>6.29411305898391e+16</v>
+        <v>2.224409208661036e+17</v>
       </c>
       <c r="F25" t="n">
-        <v>1.57496447048658e+16</v>
+        <v>5.563851928283057e+16</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1259,16 +1259,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6.005410728283245</v>
+        <v>6.852704262210328</v>
       </c>
       <c r="D26" t="n">
-        <v>1.502099880137653</v>
+        <v>1.715831146090657</v>
       </c>
       <c r="E26" t="n">
-        <v>6.417402726890898e+16</v>
+        <v>1.45691159854657e+17</v>
       </c>
       <c r="F26" t="n">
-        <v>1.604974560541563e+16</v>
+        <v>3.643868778985812e+16</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1291,16 +1291,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3.13269944107771</v>
+        <v>6.125924975311555</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7917002667689196</v>
+        <v>1.533783260493048</v>
       </c>
       <c r="E27" t="n">
-        <v>3.591417959463365e+16</v>
+        <v>1.246493082386371e+17</v>
       </c>
       <c r="F27" t="n">
-        <v>9000116034573190</v>
+        <v>3.118157474641603e+16</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1323,16 +1323,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4.111090600171612</v>
+        <v>6.240448250879601</v>
       </c>
       <c r="D28" t="n">
-        <v>1.029282939941248</v>
+        <v>1.562090982174098</v>
       </c>
       <c r="E28" t="n">
-        <v>3.858548634561358e+16</v>
+        <v>1.096214237107473e+17</v>
       </c>
       <c r="F28" t="n">
-        <v>9657931153543886</v>
+        <v>2.742061353724148e+16</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1355,16 +1355,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4.430339309684137</v>
+        <v>5.722575830358918</v>
       </c>
       <c r="D29" t="n">
-        <v>1.108869221594003</v>
+        <v>1.433052122618978</v>
       </c>
       <c r="E29" t="n">
-        <v>3.521910688124723e+16</v>
+        <v>1.021478341788357e+17</v>
       </c>
       <c r="F29" t="n">
-        <v>8829906384842002</v>
+        <v>2.55499673602378e+16</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
